--- a/Output/Reporte_2020_MINISTERIO DE HACIENDA Y FINANZAS.xlsx
+++ b/Output/Reporte_2020_MINISTERIO DE HACIENDA Y FINANZAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16ed0ccba9cd48a3/SOLCITO/PROGRAMACION/KPMG/RPA-UiPath-Semana1/Ejercicio Integrador Semana 1/Ejercicio Integrador Semana 1/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54EBF116-2CBC-4044-A95F-9BC5168A73D0}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{224363AF-850F-4741-815A-8319AAE02778}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="3202" windowWidth="7695" windowHeight="4771" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
+    <workbookView xWindow="8587" yWindow="3540" windowWidth="7696" windowHeight="4770" activeTab="1" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Jurisdiccion</t>
   </si>
@@ -86,6 +86,39 @@
   </si>
   <si>
     <t>MINISTERIO DE HACIENDA Y FINANZAS</t>
+  </si>
+  <si>
+    <t>EUQUI S.A.</t>
+  </si>
+  <si>
+    <t>30-60985684-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOALLA DE PAPEL . Modelo: De 18 cm x 24 cm (+/- 1 cm), intercalada, color blanco, para dispensador (dispenser). De buena absorción y resistente a la rotura en húmedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios para la Higiene S.A </t>
+  </si>
+  <si>
+    <t>30-71158542-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL TISSUE    Modelo: De 20 cm de ancho (+/- 1 cm), doble hoja, en rollo Presentacion: En rollo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMPIADOR DESENGRASANTE ANTISEPTICO Demás especificaciones deberán ser indicadas por la repartición solicitante   Modelo: Con odorizante, bactericida no fenólico, tiempo de acción no más de un minuto, no tóxico, biodegradable mínimo 90%, no inflamable, PH no mayor a 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCOHOL ETILICO EN GEL + ASOCIADOS Demás especificaciones deberán ser indicadas por la repartición solicitante   Modelo: De efecto bactericida </t>
+  </si>
+  <si>
+    <t>JUAN ERNESTO IBARRA</t>
+  </si>
+  <si>
+    <t>20-04424052-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUANTE PARA USO DOMESTICO Fabricados en una sola pieza por proceso de inmersión, serán lisos. Deberán responder anatómicamente al contorno natural de la mano.     La superficie de los guantes estarán libres de materias extrañas, poros, ampollas, nervaduras, grietas, zonas pegajosas o cualquier otro defecto que afecte su eficiencia.    Nota: demás exigencias se ajustaran a la Norma IRAM N° 113.090.    Los talles a solicitar quedarán a cargo de la repartición usuaria.     Se deberán proveer en envase individual, con indicación de talle, cerrado hermético para prevenir humedad y suciedad, con amplia información técnica y recomendaciones generales.   Modelo: De caucho (goma), indicar talles OtrasCaracteristicas: indicar talles Presentacion:  Envase individual, con indicación de talle, cerrado hermético para prevenir humedad y suciedad, con amplia información técnica </t>
   </si>
 </sst>
 </file>
@@ -188,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -196,13 +229,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAB0B3-976C-4A22-80DF-6963064C51BB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -532,30 +566,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="16.899999999999999" x14ac:dyDescent="0.65">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>44744</v>
+      <c r="B4" s="7">
+        <v>44775</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -575,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -589,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>187681.38</v>
       </c>
     </row>
   </sheetData>
@@ -605,9 +639,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DA34C-081E-49FC-BC42-435812368D1D}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
@@ -644,6 +678,167 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>10719.96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>140694.12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
+        <v>43980</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2242.8000000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>10719.96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>43980</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>21987.42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>43980</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>658.56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>43980</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>658.56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
